--- a/FMSS Sunum.xlsx
+++ b/FMSS Sunum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://postapauedu-my.sharepoint.com/personal/eucar19_posta_pau_edu_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B3CE2A-D01B-43C4-A0B8-8EA624E9AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE9610B7-AE00-4F4E-9039-738FE0CDED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5265" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5265" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -6596,7 +6596,7 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
@@ -7153,7 +7153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F935AF1D-6DE1-4810-8211-2D58CD2B66EF}">
   <dimension ref="A1:AM251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
